--- a/StudyStep/03 结构化机器学习项目.xlsx
+++ b/StudyStep/03 结构化机器学习项目.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/Desktop/5_深度汇总/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/zooprog/03_self_tools/03_leetcoding/StudyStep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C56A2ED-E30B-0841-B00B-8FE372C38996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D4CCA-110B-C54B-9D5D-5890EC09C36E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="-17680" windowWidth="27540" windowHeight="17040" activeTab="3" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
+    <workbookView xWindow="3340" yWindow="-17680" windowWidth="27540" windowHeight="17040" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
   </bookViews>
   <sheets>
     <sheet name="第一周 深度学习概论" sheetId="1" r:id="rId1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C0E88F-78D7-344A-9938-54281C7EEDC7}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -786,121 +786,91 @@
         <v>24</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="3"/>
@@ -938,7 +908,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -963,153 +933,115 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
@@ -1118,33 +1050,25 @@
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
@@ -1330,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E44DCD-7E56-9F42-B2D5-27F8891275BD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
